--- a/data/trans_orig/P14B21-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B21-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07B0D94E-B1F3-4A07-80E9-177732C762EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{539B6217-F287-4A91-9397-07DE68CE3A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C561CF3F-6A5C-40C7-BD87-A8409A2E10EE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2024433B-771D-400A-B824-4B76B23C55B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="231">
   <si>
     <t>Población cuyas migrañas le limita en 2012 (Tasa respuesta: 3,32%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>53,27%</t>
   </si>
   <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
   </si>
   <si>
     <t>60,75%</t>
   </si>
   <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>46,73%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
   </si>
   <si>
     <t>39,25%</t>
   </si>
   <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,592 +139,598 @@
     <t>59,04%</t>
   </si>
   <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyas migrañas le limita en 2015 (Tasa respuesta: 3,41%)</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>Población cuyas migrañas le limita en 2023 (Tasa respuesta: 8,8%)</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
     <t>38,65%</t>
   </si>
   <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyas migrañas le limita en 2015 (Tasa respuesta: 3,41%)</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>Población cuyas migrañas le limita en 2023 (Tasa respuesta: 8,8%)</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
     <t>37,35%</t>
   </si>
   <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41712536-F7E7-41B1-BDA8-3E49EBE81976}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B473A3-8694-454C-B980-14B81C1ADE69}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1887,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D279704-C928-4E71-9B7E-D303B12ACDBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B43494-9C42-4A93-AAED-3C3DB2B32EF7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2512,7 +2518,7 @@
         <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,13 +2533,13 @@
         <v>18756</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -2542,13 +2548,13 @@
         <v>67082</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>81</v>
@@ -2557,13 +2563,13 @@
         <v>85838</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,7 +2644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3AD477-FCBB-4408-AB6A-806121806149}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD4E058-883C-4FA9-AD79-249D678D66A4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2655,7 +2661,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2762,13 +2768,13 @@
         <v>14706</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>124</v>
@@ -2777,13 +2783,13 @@
         <v>77350</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>146</v>
@@ -2792,13 +2798,13 @@
         <v>92056</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2819,13 @@
         <v>8295</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>47</v>
@@ -2828,13 +2834,13 @@
         <v>26191</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -2843,13 +2849,13 @@
         <v>34486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2923,13 @@
         <v>54587</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>218</v>
@@ -2932,13 +2938,13 @@
         <v>148531</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>268</v>
@@ -2947,13 +2953,13 @@
         <v>203118</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +2974,13 @@
         <v>48566</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>125</v>
@@ -3245,10 +3251,10 @@
         <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>493</v>
@@ -3257,13 +3263,13 @@
         <v>357270</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3284,13 @@
         <v>70641</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>205</v>
@@ -3293,13 +3299,13 @@
         <v>142313</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>273</v>
@@ -3308,13 +3314,13 @@
         <v>212953</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B21-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B21-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{539B6217-F287-4A91-9397-07DE68CE3A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77D38186-9658-41CA-822B-48D8FE64C02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2024433B-771D-400A-B824-4B76B23C55B4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{413E5DAA-1B9E-4D69-98DC-5450E2ED5F36}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -76,28 +76,28 @@
     <t>53,27%</t>
   </si>
   <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
   </si>
   <si>
     <t>60,75%</t>
   </si>
   <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>46,73%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
   </si>
   <si>
     <t>39,25%</t>
   </si>
   <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>59,04%</t>
   </si>
   <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
   </si>
   <si>
     <t>66,0%</t>
   </si>
   <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
   </si>
   <si>
     <t>64,5%</t>
   </si>
   <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
   </si>
   <si>
     <t>40,96%</t>
   </si>
   <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
   </si>
   <si>
     <t>34,0%</t>
   </si>
   <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
   </si>
   <si>
     <t>35,5%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -205,19 +205,19 @@
     <t>61,37%</t>
   </si>
   <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
   </si>
   <si>
     <t>56,58%</t>
   </si>
   <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -229,384 +229,390 @@
     <t>38,63%</t>
   </si>
   <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
   </si>
   <si>
     <t>43,42%</t>
   </si>
   <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
   </si>
   <si>
     <t>53,79%</t>
   </si>
   <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
   </si>
   <si>
     <t>63,82%</t>
   </si>
   <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
   </si>
   <si>
     <t>62,02%</t>
   </si>
   <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
   </si>
   <si>
     <t>46,21%</t>
   </si>
   <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
   </si>
   <si>
     <t>36,18%</t>
   </si>
   <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
   </si>
   <si>
     <t>37,98%</t>
   </si>
   <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyas migrañas le limita en 2015 (Tasa respuesta: 3,41%)</t>
+    <t>Población cuyas migrañas le limita en 2016 (Tasa respuesta: 3,41%)</t>
   </si>
   <si>
     <t>74,97%</t>
   </si>
   <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
   </si>
   <si>
     <t>70,76%</t>
   </si>
   <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
   </si>
   <si>
     <t>71,52%</t>
   </si>
   <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
   </si>
   <si>
     <t>25,03%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
   </si>
   <si>
     <t>28,48%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
   </si>
   <si>
     <t>48,04%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
   </si>
   <si>
     <t>66,61%</t>
   </si>
   <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
   </si>
   <si>
     <t>63,03%</t>
   </si>
   <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
   </si>
   <si>
     <t>51,96%</t>
   </si>
   <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
   </si>
   <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
   </si>
   <si>
     <t>36,97%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
   </si>
   <si>
     <t>68,1%</t>
   </si>
   <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
   </si>
   <si>
     <t>48,4%</t>
   </si>
   <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
   </si>
   <si>
     <t>53,38%</t>
   </si>
   <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
   </si>
   <si>
     <t>31,9%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
   </si>
   <si>
     <t>51,6%</t>
   </si>
   <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
   </si>
   <si>
     <t>46,62%</t>
   </si>
   <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
   </si>
   <si>
     <t>60,82%</t>
   </si>
   <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
   </si>
   <si>
     <t>65,55%</t>
   </si>
   <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>Población cuyas migrañas le limita en 2023 (Tasa respuesta: 8,8%)</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
     <t>58,03%</t>
   </si>
   <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>Población cuyas migrañas le limita en 2023 (Tasa respuesta: 8,8%)</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
     <t>38,0%</t>
   </si>
   <si>
@@ -691,9 +697,6 @@
     <t>65,88%</t>
   </si>
   <si>
-    <t>61,35%</t>
-  </si>
-  <si>
     <t>70,03%</t>
   </si>
   <si>
@@ -719,9 +722,6 @@
   </si>
   <si>
     <t>29,97%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
   </si>
   <si>
     <t>37,35%</t>
@@ -1142,7 +1142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B473A3-8694-454C-B980-14B81C1ADE69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B6D5C6-759A-40A9-AE64-EFCD56E08917}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1893,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B43494-9C42-4A93-AAED-3C3DB2B32EF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A4AB9A-508C-4FEB-A1BA-35B49F734C21}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2644,7 +2644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD4E058-883C-4FA9-AD79-249D678D66A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03B0AFB-C528-4119-907E-DB888204F9AB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2926,10 +2926,10 @@
         <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>218</v>
@@ -2938,13 +2938,13 @@
         <v>148531</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>268</v>
@@ -2953,13 +2953,13 @@
         <v>203118</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +2974,13 @@
         <v>48566</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>125</v>
@@ -2989,13 +2989,13 @@
         <v>91033</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>170</v>
@@ -3004,13 +3004,13 @@
         <v>139599</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3078,13 @@
         <v>13257</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -3093,13 +3093,13 @@
         <v>48840</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -3108,13 +3108,13 @@
         <v>62097</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,13 +3129,13 @@
         <v>13779</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -3144,13 +3144,13 @@
         <v>25089</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -3159,13 +3159,13 @@
         <v>38867</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3233,13 @@
         <v>82549</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>408</v>
@@ -3248,13 +3248,13 @@
         <v>274721</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>493</v>
@@ -3263,13 +3263,13 @@
         <v>357270</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3284,13 @@
         <v>70641</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>205</v>
@@ -3299,13 +3299,13 @@
         <v>142313</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="M14" s="7">
         <v>273</v>
